--- a/output/descriptive/d_FY_parentHE.xlsx
+++ b/output/descriptive/d_FY_parentHE.xlsx
@@ -489,10 +489,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
